--- a/swing_strategy_vix_sim_strict_20260202.xlsx
+++ b/swing_strategy_vix_sim_strict_20260202.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,87 +747,87 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>WCC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>72.78</v>
+        <v>289.43</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>71.68 - 72.68</t>
+          <t>287.26 - 291.26</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>72.18000000000001</v>
+        <v>289.26</v>
       </c>
       <c r="F4" t="n">
-        <v>68.41</v>
+        <v>274.28</v>
       </c>
       <c r="G4" t="n">
-        <v>75.76000000000001</v>
+        <v>300.24</v>
       </c>
       <c r="H4" t="n">
-        <v>80.33</v>
+        <v>85.09</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.28</v>
+        <v>-0.08</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.26</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="M4" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="N4" t="n">
-        <v>208361696</v>
+        <v>48646230</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>31892842496</v>
+        <v>14223625216</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>资金明确派发，禁止交易</t>
+          <t>主升浪建仓/加仓</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>19.49</v>
+        <v>78.23999999999999</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>派发阶段</t>
+          <t>极度缩量(隐蔽吸筹)</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>trend_pullback</t>
+          <t>strong_uptrend</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
@@ -839,77 +839,77 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>FOXA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>110.27</v>
+        <v>72.78</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>108.71 - 110.23</t>
+          <t>71.68 - 72.68</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>109.47</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>103.76</v>
+        <v>68.41</v>
       </c>
       <c r="G5" t="n">
-        <v>114.98</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>76.73999999999999</v>
+        <v>80.33</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.83</v>
+        <v>-0.28</v>
       </c>
       <c r="K5" t="n">
-        <v>0.87</v>
+        <v>-0.26</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="N5" t="n">
-        <v>2482022536</v>
+        <v>208361696</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>270347583488</v>
+        <v>31892842496</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>趋势未启动，仅观察</t>
+          <t>资金明确派发，禁止交易</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>49.45</v>
+        <v>19.49</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>派发阶段</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -926,64 +926,64 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.44</v>
+        <v>110.27</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.09 - 21.05</t>
+          <t>108.71 - 110.23</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.09</v>
+        <v>109.47</v>
       </c>
       <c r="F6" t="n">
-        <v>19.92</v>
+        <v>103.76</v>
       </c>
       <c r="G6" t="n">
-        <v>21.87</v>
+        <v>114.98</v>
       </c>
       <c r="H6" t="n">
-        <v>96.51000000000001</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.47</v>
+        <v>0.83</v>
       </c>
       <c r="K6" t="n">
-        <v>2.42</v>
+        <v>0.87</v>
       </c>
       <c r="L6" t="n">
-        <v>0.77</v>
+        <v>0.04</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
       <c r="N6" t="n">
-        <v>642106588</v>
+        <v>2482022536</v>
       </c>
       <c r="O6" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="P6" t="n">
-        <v>0.33</v>
+        <v>0.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>14584473600</v>
+        <v>270347583488</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -992,11 +992,11 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>29.2</v>
+        <v>49.45</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>高位放量分歧</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1018,92 +1018,92 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GAP</t>
+          <t>CDE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27.98</v>
+        <v>20.44</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.70 - 28.08</t>
+          <t>21.09 - 21.05</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.89</v>
+        <v>21.09</v>
       </c>
       <c r="F7" t="n">
-        <v>26.29</v>
+        <v>19.92</v>
       </c>
       <c r="G7" t="n">
-        <v>28.95</v>
+        <v>21.87</v>
       </c>
       <c r="H7" t="n">
-        <v>75.83</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.14</v>
+        <v>4.47</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.14</v>
+        <v>2.42</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03</v>
+        <v>0.77</v>
       </c>
       <c r="M7" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="N7" t="n">
-        <v>371921740</v>
+        <v>642106588</v>
       </c>
       <c r="O7" t="n">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>10302232576</v>
+        <v>14584473600</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>量价支持不足</t>
+          <t>趋势未启动，仅观察</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>27.39</v>
+        <v>29.2</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>量价中性</t>
+          <t>高位放量分歧</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>uptrend</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>mid</t>
+          <t>early</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>防御性对冲</t>
+          <t>中性</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
         <v>61.58</v>
       </c>
       <c r="G14" t="n">
-        <v>68.34</v>
+        <v>68.59</v>
       </c>
       <c r="H14" t="n">
         <v>81.98</v>
@@ -1846,82 +1846,82 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>121.15</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>120.17 - 121.84</t>
+          <t>64.47 - 65.37</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>121.01</v>
+        <v>64.92</v>
       </c>
       <c r="F16" t="n">
-        <v>114.74</v>
+        <v>61.53</v>
       </c>
       <c r="G16" t="n">
-        <v>125.61</v>
+        <v>68.83</v>
       </c>
       <c r="H16" t="n">
-        <v>90.56999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N16" t="n">
+        <v>235581025</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="P16" t="n">
         <v>0.7</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N16" t="n">
-        <v>19070757</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.76</v>
-      </c>
       <c r="Q16" t="n">
-        <v>2287727872</v>
+        <v>30472759296</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>阶段不明，小仓试探</t>
+          <t>阶段不明，仅观察</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>100</v>
+        <v>26.18</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>明确吸筹</t>
+          <t>量价中性</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>strong_uptrend</t>
+          <t>trend_pullback</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -1931,97 +1931,281 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>机构偏多</t>
+          <t>防御性对冲</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SIG</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92.27</v>
+        <v>121.15</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.46 - 92.74</t>
+          <t>120.17 - 121.84</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>92.09999999999999</v>
+        <v>121.01</v>
       </c>
       <c r="F17" t="n">
-        <v>87.04000000000001</v>
+        <v>114.74</v>
       </c>
       <c r="G17" t="n">
-        <v>95.59999999999999</v>
+        <v>125.61</v>
       </c>
       <c r="H17" t="n">
-        <v>78.13</v>
+        <v>90.56999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>5</v>
       </c>
       <c r="J17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N17" t="n">
+        <v>19070757</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2287727872</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>阶段不明，小仓试探</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>100</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>明确吸筹</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>strong_uptrend</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SIG</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>92.27</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>91.46 - 92.74</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>87.04000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>78.13</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
         <v>1.86</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>3.08</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>0.03</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M18" t="n">
         <v>0.08</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N18" t="n">
         <v>40684442</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O18" t="n">
         <v>1.15</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>0.66</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>3752963072</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>非趋势结构，仅观察</t>
         </is>
       </c>
-      <c r="T17" t="n">
+      <c r="T18" t="n">
         <v>52.04</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>量价中性</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>range</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>机构偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NTCT</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.57 - 27.96</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="F19" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="H19" t="n">
+        <v>72.06999999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>72193673</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1992545408</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>非趋势结构，仅观察</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>极度缩量(隐蔽吸筹)</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
         <is>
           <t>机构偏多</t>
         </is>
